--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAKS\_DUBOKO_UCENJE\Sentiment-Analysis-Voice-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57A702D-C4EB-47EC-8353-C6ACAD77D214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492173BF-01A1-4FEE-A4B1-0AA5548CF52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>file</t>
   </si>
@@ -91,15 +91,6 @@
   </si>
   <si>
     <t>/audiof/command18.wav</t>
-  </si>
-  <si>
-    <t>/audiof/command19.wav</t>
-  </si>
-  <si>
-    <t>/audiof/command20.wav</t>
-  </si>
-  <si>
-    <t>/audiof/command21.wav</t>
   </si>
   <si>
     <t>analyze sentiment of I feel horrible</t>
@@ -420,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="B22" sqref="A20:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +452,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -485,7 +476,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -509,7 +500,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -533,7 +524,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -557,7 +548,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -581,31 +572,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
         <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAKS\_DUBOKO_UCENJE\Sentiment-Analysis-Voice-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492173BF-01A1-4FEE-A4B1-0AA5548CF52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0F45D3-D3FF-4EE2-807D-81B60F9189F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>file</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>analyze sentiment of I feel horrible</t>
+  </si>
+  <si>
+    <t>/audiof/command19.wav</t>
+  </si>
+  <si>
+    <t>analyze sentiment of I feel happy,amazing, horrible</t>
   </si>
 </sst>
 </file>
@@ -411,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B22" sqref="A20:B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,6 +581,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAKS\_DUBOKO_UCENJE\Sentiment-Analysis-Voice-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0F45D3-D3FF-4EE2-807D-81B60F9189F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65610167-452B-41B0-94F8-2886370F59D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,7 +99,7 @@
     <t>/audiof/command19.wav</t>
   </si>
   <si>
-    <t>analyze sentiment of I feel happy,amazing, horrible</t>
+    <t>analyze sentiment of I feel happy, amazing, horrible</t>
   </si>
 </sst>
 </file>

--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAKS\_DUBOKO_UCENJE\Sentiment-Analysis-Voice-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65610167-452B-41B0-94F8-2886370F59D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544A737-185A-4A4A-88B4-35A258DF23D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>file</t>
   </si>
@@ -33,63 +33,42 @@
     <t>text</t>
   </si>
   <si>
-    <t>analyze sentiment of I feel happy</t>
-  </si>
-  <si>
     <t>analyze sentiment of I feel amazing</t>
   </si>
   <si>
     <t>/audiof/command1.wav</t>
   </si>
   <si>
-    <t>/audiof/command2.wav</t>
-  </si>
-  <si>
     <t>/audiof/command3.wav</t>
   </si>
   <si>
     <t>/audiof/command4.wav</t>
   </si>
   <si>
-    <t>/audiof/command5.wav</t>
-  </si>
-  <si>
     <t>/audiof/command6.wav</t>
   </si>
   <si>
     <t>/audiof/command7.wav</t>
   </si>
   <si>
-    <t>/audiof/command8.wav</t>
-  </si>
-  <si>
     <t>/audiof/command9.wav</t>
   </si>
   <si>
     <t>/audiof/command10.wav</t>
   </si>
   <si>
-    <t>/audiof/command11.wav</t>
-  </si>
-  <si>
     <t>/audiof/command12.wav</t>
   </si>
   <si>
     <t>/audiof/command13.wav</t>
   </si>
   <si>
-    <t>/audiof/command14.wav</t>
-  </si>
-  <si>
     <t>/audiof/command15.wav</t>
   </si>
   <si>
     <t>/audiof/command16.wav</t>
   </si>
   <si>
-    <t>/audiof/command17.wav</t>
-  </si>
-  <si>
     <t>/audiof/command18.wav</t>
   </si>
   <si>
@@ -99,7 +78,7 @@
     <t>/audiof/command19.wav</t>
   </si>
   <si>
-    <t>analyze sentiment of I feel happy, amazing, horrible</t>
+    <t>analyze sentiment of I feel amazing, horrible</t>
   </si>
 </sst>
 </file>
@@ -417,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A13" sqref="A13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,39 +418,39 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -479,47 +458,47 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
@@ -527,10 +506,10 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -538,55 +517,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
         <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/train.xlsx
+++ b/train.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\FAKS\_DUBOKO_UCENJE\Sentiment-Analysis-Voice-Recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9544A737-185A-4A4A-88B4-35A258DF23D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95801495-4A0E-49CD-A6F4-E06F7D79B757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>file</t>
   </si>
@@ -78,7 +78,28 @@
     <t>/audiof/command19.wav</t>
   </si>
   <si>
-    <t>analyze sentiment of I feel amazing, horrible</t>
+    <t>analyze sentiment of I feel happy, amazing, horrible</t>
+  </si>
+  <si>
+    <t>/audiof/command2.wav</t>
+  </si>
+  <si>
+    <t>/audiof/command5.wav</t>
+  </si>
+  <si>
+    <t>/audiof/command8.wav</t>
+  </si>
+  <si>
+    <t>/audiof/command11.wav</t>
+  </si>
+  <si>
+    <t>/audiof/command14.wav</t>
+  </si>
+  <si>
+    <t>/audiof/command17.wav</t>
+  </si>
+  <si>
+    <t>analyze sentiment of I feel happy</t>
   </si>
 </sst>
 </file>
@@ -396,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -520,6 +541,54 @@
         <v>17</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
